--- a/src/test/resources/yo/dbunitcli/application/multidiff/expect/columnadd.xlsx
+++ b/src/test/resources/yo/dbunitcli/application/multidiff/expect/columnadd.xlsx
@@ -146,16 +146,8 @@
           <t>newVal</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -193,16 +185,8 @@
           <t>oldVal</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -260,26 +244,10 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -342,31 +310,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
